--- a/data_year/zb/城市概况/城市市容环境卫生.xlsx
+++ b/data_year/zb/城市概况/城市市容环境卫生.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,367 +463,255 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109629</v>
+        <v>119327</v>
       </c>
       <c r="C2" t="n">
-        <v>60238</v>
+        <v>90414</v>
       </c>
       <c r="D2" t="n">
-        <v>15509.3</v>
+        <v>15804.8</v>
       </c>
       <c r="E2" t="n">
-        <v>3576.3</v>
+        <v>1950.52</v>
       </c>
       <c r="F2" t="n">
-        <v>275972.54</v>
+        <v>485033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114917</v>
+        <v>120459</v>
       </c>
       <c r="C3" t="n">
-        <v>64205</v>
+        <v>100340</v>
       </c>
       <c r="D3" t="n">
-        <v>15576.8</v>
+        <v>16395.28</v>
       </c>
       <c r="E3" t="n">
-        <v>3804.6</v>
+        <v>1962.86</v>
       </c>
       <c r="F3" t="n">
-        <v>310806.09</v>
+        <v>630545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107331</v>
+        <v>121941</v>
       </c>
       <c r="C4" t="n">
-        <v>66020</v>
+        <v>112157</v>
       </c>
       <c r="D4" t="n">
-        <v>14841.3</v>
+        <v>17080.87</v>
       </c>
       <c r="E4" t="n">
-        <v>2130.5</v>
+        <v>1811.8</v>
       </c>
       <c r="F4" t="n">
-        <v>324768</v>
+        <v>573507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112604</v>
+        <v>122541</v>
       </c>
       <c r="C5" t="n">
-        <v>71609</v>
+        <v>126552</v>
       </c>
       <c r="D5" t="n">
-        <v>15214.53</v>
+        <v>17238.58</v>
       </c>
       <c r="E5" t="n">
-        <v>2506.29</v>
+        <v>1682.41</v>
       </c>
       <c r="F5" t="n">
-        <v>379355</v>
+        <v>646014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115306</v>
+        <v>124410</v>
       </c>
       <c r="C6" t="n">
-        <v>76400</v>
+        <v>141431</v>
       </c>
       <c r="D6" t="n">
-        <v>15437.7</v>
+        <v>17860.18</v>
       </c>
       <c r="E6" t="n">
-        <v>2330.71</v>
+        <v>1551.97</v>
       </c>
       <c r="F6" t="n">
-        <v>468545</v>
+        <v>676093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118525</v>
+        <v>126344</v>
       </c>
       <c r="C7" t="n">
-        <v>83756</v>
+        <v>165725</v>
       </c>
       <c r="D7" t="n">
-        <v>15733.68</v>
+        <v>19141.87</v>
       </c>
       <c r="E7" t="n">
-        <v>2140.96</v>
+        <v>1436.77</v>
       </c>
       <c r="F7" t="n">
-        <v>447265</v>
+        <v>730333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119327</v>
+        <v>129818</v>
       </c>
       <c r="C8" t="n">
-        <v>90414</v>
+        <v>193942</v>
       </c>
       <c r="D8" t="n">
-        <v>15804.8</v>
+        <v>20362.01</v>
       </c>
       <c r="E8" t="n">
-        <v>1950.52</v>
+        <v>1299.16</v>
       </c>
       <c r="F8" t="n">
-        <v>485033</v>
+        <v>794923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120459</v>
+        <v>136084</v>
       </c>
       <c r="C9" t="n">
-        <v>100340</v>
+        <v>228019</v>
       </c>
       <c r="D9" t="n">
-        <v>16395.28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1962.86</v>
-      </c>
+        <v>21520.86</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>630545</v>
+        <v>842048</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121941</v>
+        <v>147466</v>
       </c>
       <c r="C10" t="n">
-        <v>112157</v>
+        <v>252484</v>
       </c>
       <c r="D10" t="n">
-        <v>17080.87</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1811.8</v>
-      </c>
+        <v>22801.753899</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>573507</v>
+        <v>869328.8100000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122541</v>
+        <v>153426</v>
       </c>
       <c r="C11" t="n">
-        <v>126552</v>
+        <v>281558</v>
       </c>
       <c r="D11" t="n">
-        <v>17238.58</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1682.41</v>
-      </c>
+        <v>24206.185336</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>646014</v>
+        <v>922124.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124410</v>
+        <v>165186</v>
       </c>
       <c r="C12" t="n">
-        <v>141431</v>
+        <v>306422</v>
       </c>
       <c r="D12" t="n">
-        <v>17860.18</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1551.97</v>
-      </c>
+        <v>23511.707419</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>676093</v>
+        <v>975594.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126344</v>
+        <v>184063</v>
       </c>
       <c r="C13" t="n">
-        <v>165725</v>
+        <v>327512</v>
       </c>
       <c r="D13" t="n">
-        <v>19141.87</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1436.77</v>
-      </c>
+        <v>24869.205146</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>730333</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>129818</v>
-      </c>
-      <c r="C14" t="n">
-        <v>193942</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20362.01</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1299.16</v>
-      </c>
-      <c r="F14" t="n">
-        <v>794923</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>136084</v>
-      </c>
-      <c r="C15" t="n">
-        <v>228019</v>
-      </c>
-      <c r="D15" t="n">
-        <v>21520.86</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>842048</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>147466</v>
-      </c>
-      <c r="C16" t="n">
-        <v>252484</v>
-      </c>
-      <c r="D16" t="n">
-        <v>22801.753899</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>869328.8100000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>153426</v>
-      </c>
-      <c r="C17" t="n">
-        <v>281558</v>
-      </c>
-      <c r="D17" t="n">
-        <v>24206.185336</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>922124.15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>165186</v>
-      </c>
-      <c r="C18" t="n">
-        <v>306422</v>
-      </c>
-      <c r="D18" t="n">
-        <v>23511.707419</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>975594.7</v>
+        <v>1034211.2</v>
       </c>
     </row>
   </sheetData>
